--- a/設計.xlsx
+++ b/設計.xlsx
@@ -103,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>檢核庫存觸賣量加總不得高於庫存量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>委託設觸賣應該要檢查股票是否可當沖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,6 +384,10 @@
   </si>
   <si>
     <t>觸賣(動態)進階設定:○符合一項就賣出，○價量同時符合才賣出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢核庫存觸賣量加總不得高於庫存量(還要減掉已委託的數量，避免有重開程式)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,14 +628,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -950,7 +950,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -960,7 +960,7 @@
       <c r="O2" s="6"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -987,22 +987,22 @@
         <v>7</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
         <v>32</v>
-      </c>
-      <c r="R3" t="s">
-        <v>33</v>
       </c>
       <c r="X3" s="8"/>
     </row>
@@ -1020,13 +1020,13 @@
         <v>2330</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="2">
         <v>10</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="8"/>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="2"/>
@@ -1080,16 +1080,16 @@
         <v>15</v>
       </c>
       <c r="R6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="U6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1115,26 +1115,26 @@
         <v>16</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="U7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="8"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1174,7 +1174,7 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="2" t="s">
@@ -1194,7 +1194,7 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1203,7 +1203,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1233,16 +1233,16 @@
         <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>6</v>
@@ -1251,19 +1251,19 @@
         <v>7</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="O11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="2"/>
@@ -1281,25 +1281,25 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="7">
         <v>2330</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="2"/>
@@ -1317,29 +1317,29 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="8"/>
       <c r="Q13" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="13" t="s">
         <v>1</v>
       </c>
       <c r="T13" s="1"/>
-      <c r="U13" s="18" t="s">
+      <c r="U13" s="16" t="s">
         <v>3</v>
       </c>
       <c r="V13" s="2"/>
@@ -1351,14 +1351,14 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="7"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1371,7 +1371,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1384,7 +1384,7 @@
       <c r="O15" s="8"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1465,7 +1465,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
@@ -1481,14 +1481,14 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1498,7 +1498,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="Q22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1512,14 +1512,14 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="Q23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1529,7 +1529,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="Q24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1560,13 +1560,13 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="Q26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R26" s="2"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1576,13 +1576,13 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="Q27" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1592,13 +1592,13 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="Q28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1608,7 +1608,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="Q29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R29" s="2"/>
     </row>
@@ -1625,116 +1625,116 @@
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="Q33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="Q41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="Q42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
